--- a/doc/权限说明.xlsx
+++ b/doc/权限说明.xlsx
@@ -244,20 +244,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -540,31 +568,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="20.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="20.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,13 +613,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="1"/>
@@ -601,11 +629,11 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1"/>
@@ -615,14 +643,14 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="1"/>
@@ -631,373 +659,373 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
